--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_1_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_1_sawtooth_0_.xlsx
@@ -591,14 +591,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.8303011477757973, 10.384104609120518]</t>
+          <t>[2.8910227675457527, 10.323382989350563]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0007188833375075809</v>
+        <v>0.0005918973104912517</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0007188833375075809</v>
+        <v>0.0005918973104912517</v>
       </c>
       <c r="O2" t="n">
         <v>-1.496894998106848</v>
@@ -612,21 +612,21 @@
         <v>0.0001068276475753027</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001592778063752576</v>
+        <v>0.0002136552951506054</v>
       </c>
       <c r="S2" t="n">
         <v>9.401141355737435</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.1100099652277216, 11.692272746247149]</t>
+          <t>[7.109498362924011, 11.692784348550859]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.19824158875781e-13</v>
+        <v>2.220446049250313e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>2.19824158875781e-13</v>
+        <v>2.220446049250313e-13</v>
       </c>
       <c r="W2" t="n">
         <v>5.241241241241241</v>
@@ -672,35 +672,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.3625367023352752, 9.407331405842772]</t>
+          <t>[3.3316356372733757, 9.438232470904671]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.248922053928794e-05</v>
+        <v>5.050883475488099e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>8.497844107857588e-05</v>
+        <v>0.000101017669509762</v>
       </c>
       <c r="O3" t="n">
         <v>-0.8805264694746171</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.3333686537758487, -0.4276842851733855]</t>
+          <t>[-1.3459476033397717, -0.4151053356094625]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001592778063752576</v>
+        <v>0.000236457049741956</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001592778063752576</v>
+        <v>0.000236457049741956</v>
       </c>
       <c r="S3" t="n">
         <v>8.896163413798014</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.325893659366098, 10.46643316822993]</t>
+          <t>[7.326373878006729, 10.4659529495893]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -713,10 +713,10 @@
         <v>3.270870870870901</v>
       </c>
       <c r="X3" t="n">
-        <v>1.588708708708723</v>
+        <v>1.541981981981996</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.953033033033079</v>
+        <v>4.999759759759806</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_1_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_1_sawtooth_0_.xlsx
@@ -591,51 +591,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.8910227675457527, 10.323382989350563]</t>
+          <t>[2.827368153160945, 10.38703760373537]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0005918973104912517</v>
+        <v>0.0007255084477275631</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0005918973104912517</v>
+        <v>0.0007255084477275631</v>
       </c>
       <c r="O2" t="n">
         <v>-1.496894998106848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.23905302237831, -0.754736973835386]</t>
+          <t>[-2.251631971942233, -0.7421580242714629]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001068276475753027</v>
+        <v>0.0001371719910414626</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0002136552951506054</v>
+        <v>0.000236457049741956</v>
       </c>
       <c r="S2" t="n">
         <v>9.401141355737435</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.109498362924011, 11.692784348550859]</t>
+          <t>[7.111050871142959, 11.69123184033191]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.220446049250313e-13</v>
+        <v>2.153832667772804e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>2.220446049250313e-13</v>
+        <v>2.153832667772804e-13</v>
       </c>
       <c r="W2" t="n">
         <v>5.241241241241241</v>
       </c>
       <c r="X2" t="n">
-        <v>2.642642642642644</v>
+        <v>2.5985985985986</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.839839839839838</v>
+        <v>7.883883883883881</v>
       </c>
     </row>
     <row r="3">
@@ -672,14 +672,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.3316356372733757, 9.438232470904671]</t>
+          <t>[3.355240802345156, 9.41462730583289]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.050883475488099e-05</v>
+        <v>4.427929625339111e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.000101017669509762</v>
+        <v>8.855859250678222e-05</v>
       </c>
       <c r="O3" t="n">
         <v>-0.8805264694746171</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.326373878006729, 10.4659529495893]</t>
+          <t>[7.325109324969334, 10.467217502626694]</t>
         </is>
       </c>
       <c r="U3" t="n">
